--- a/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
@@ -16,39 +16,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市龍井區新東段0584-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區龍目井段水里社 小段0008-0002地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區龍目井段水里社 小段0008-0013地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區龍目并段水里社 小段0008-0014地號</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市龍井區新東段05840000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區龍目井段水里社小段00080002地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區龍目井段水里社小段00080013地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區龍目并段水里社小段00080014地號</t>
   </si>
   <si>
     <t>全部</t>
@@ -63,13 +84,13 @@
     <t>顏清標</t>
   </si>
   <si>
-    <t>83年12月 07日</t>
-  </si>
-  <si>
-    <t>83年11月 16日</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
+    <t>83年12月07日</t>
+  </si>
+  <si>
+    <t>83年11月16日</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
   </si>
   <si>
     <t>買賣</t>
@@ -78,6 +99,18 @@
     <t>(超過五年）</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-10</t>
+  </si>
+  <si>
+    <t>tmp1b4d1</t>
+  </si>
+  <si>
     <t>種類</t>
   </si>
   <si>
@@ -108,31 +141,31 @@
     <t>黃美貴</t>
   </si>
   <si>
-    <t>國泰世華銀行 臺北市信義區松疒路</t>
-  </si>
-  <si>
-    <t>華南銀行清水分行 臺中市清水區中山路</t>
-  </si>
-  <si>
-    <t>元營建設股份有限公司 臺中市沙鹿區北勢東路</t>
-  </si>
-  <si>
-    <t>國泰世華銀行 臺北市信義區松仁路</t>
-  </si>
-  <si>
-    <t>8，961,620</t>
-  </si>
-  <si>
-    <t>85年05月 30日</t>
-  </si>
-  <si>
-    <t>84年07月 08日</t>
-  </si>
-  <si>
-    <t>97年10月 23日</t>
-  </si>
-  <si>
-    <t>85年11月 16 H</t>
+    <t>國泰世華銀行臺北市信義區松疒路</t>
+  </si>
+  <si>
+    <t>華南銀行清水分行臺中市清水區中山路</t>
+  </si>
+  <si>
+    <t>元營建設股份有限公司臺中市沙鹿區北勢東路</t>
+  </si>
+  <si>
+    <t>國泰世華銀行臺北市信義區松仁路</t>
+  </si>
+  <si>
+    <t>8961620</t>
+  </si>
+  <si>
+    <t>85年05月30日</t>
+  </si>
+  <si>
+    <t>84年07月08日</t>
+  </si>
+  <si>
+    <t>97年10月23日</t>
+  </si>
+  <si>
+    <t>85年11月16H</t>
   </si>
   <si>
     <t>短期放款</t>
@@ -141,10 +174,10 @@
     <t>繼承債務</t>
   </si>
   <si>
-    <t>繼承保證債 務</t>
-  </si>
-  <si>
-    <t>依據台灣台 北地方法院 97年10月 23 H北院隆 97執</t>
+    <t>繼承保證債務</t>
+  </si>
+  <si>
+    <t>依據台灣台北地方法院97年10月23H北院隆97執</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -171,7 +204,7 @@
     <t>僑鴻建設股份有限公司</t>
   </si>
   <si>
-    <t>臺中市竹林里中山路紅竹巷 58號1樓</t>
+    <t>臺中市竹林里中山路紅竹巷58號1樓</t>
   </si>
   <si>
     <t>臺中市港埠路1段229號</t>
@@ -180,13 +213,13 @@
     <t>臺中市埔子里正義路1號</t>
   </si>
   <si>
-    <t>87年07月 15 R</t>
-  </si>
-  <si>
-    <t>83年03月 16日</t>
-  </si>
-  <si>
-    <t>85年07月 13曰</t>
+    <t>87年07月15R</t>
+  </si>
+  <si>
+    <t>83年03月16日</t>
+  </si>
+  <si>
+    <t>85年07月13曰</t>
   </si>
   <si>
     <t>合資公司</t>
@@ -548,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,109 +609,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>91.84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>979</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1527</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>979</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1693</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>979</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>191</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>979</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -696,22 +834,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -719,22 +857,22 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2">
         <v>5707475</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -742,22 +880,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2">
         <v>8646484</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -765,22 +903,22 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>9601734</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -788,22 +926,22 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2">
         <v>71062315</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -811,22 +949,22 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -834,22 +972,22 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
         <v>29291128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -857,22 +995,22 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>25934529</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -880,22 +1018,22 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2">
         <v>24224554</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -903,22 +1041,22 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
         <v>5742274</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -936,22 +1074,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -959,22 +1097,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>1676000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -982,22 +1120,22 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2">
         <v>3000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1005,22 +1143,22 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>12000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -60,7 +60,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市龍井區新東段05840000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市龍井區龍目井段水里社小段00080002地號</t>
@@ -72,27 +75,18 @@
     <t>臺中市龍井區龍目并段水里社小段00080014地號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>100分之10</t>
   </si>
   <si>
+    <t>顏清標</t>
+  </si>
+  <si>
     <t>顔清標</t>
   </si>
   <si>
-    <t>顏清標</t>
-  </si>
-  <si>
-    <t>83年12月07日</t>
-  </si>
-  <si>
     <t>83年11月16日</t>
   </si>
   <si>
-    <t>共有物分割</t>
-  </si>
-  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -111,27 +105,18 @@
     <t>tmp1b4d1</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>催收款</t>
   </si>
   <si>
+    <t>國泰世華銀行臺北市信義區松疒路</t>
+  </si>
+  <si>
+    <t>85年05月30日</t>
+  </si>
+  <si>
+    <t>短期放款</t>
+  </si>
+  <si>
     <t>長期擔保放款</t>
   </si>
   <si>
@@ -141,9 +126,6 @@
     <t>黃美貴</t>
   </si>
   <si>
-    <t>國泰世華銀行臺北市信義區松疒路</t>
-  </si>
-  <si>
     <t>華南銀行清水分行臺中市清水區中山路</t>
   </si>
   <si>
@@ -156,9 +138,6 @@
     <t>8961620</t>
   </si>
   <si>
-    <t>85年05月30日</t>
-  </si>
-  <si>
     <t>84年07月08日</t>
   </si>
   <si>
@@ -168,9 +147,6 @@
     <t>85年11月16H</t>
   </si>
   <si>
-    <t>短期放款</t>
-  </si>
-  <si>
     <t>繼承債務</t>
   </si>
   <si>
@@ -183,46 +159,34 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>%投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>天台砂石股份有限公司</t>
   </si>
   <si>
+    <t>臺中市竹林里中山路紅竹巷58號1樓</t>
+  </si>
+  <si>
+    <t>87年07月15R</t>
+  </si>
+  <si>
+    <t>合資公司</t>
+  </si>
+  <si>
     <t>天馬瀝青股份有限公司</t>
   </si>
   <si>
     <t>僑鴻建設股份有限公司</t>
   </si>
   <si>
-    <t>臺中市竹林里中山路紅竹巷58號1樓</t>
-  </si>
-  <si>
     <t>臺中市港埠路1段229號</t>
   </si>
   <si>
     <t>臺中市埔子里正義路1號</t>
   </si>
   <si>
-    <t>87年07月15R</t>
-  </si>
-  <si>
     <t>83年03月16日</t>
   </si>
   <si>
     <t>85年07月13曰</t>
-  </si>
-  <si>
-    <t>合資公司</t>
   </si>
 </sst>
 </file>
@@ -581,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,19 +594,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>91.84</v>
+        <v>1527</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -651,42 +621,48 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>979</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>152.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1527</v>
+        <v>1693</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -695,128 +671,93 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2">
         <v>979</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1693</v>
+        <v>191</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="M4" s="2">
         <v>979</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>191</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2">
-        <v>979</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2">
-        <v>17</v>
+      <c r="P4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>19.1</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +767,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -834,229 +775,206 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5707475</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
-        <v>5707475</v>
+        <v>8646484</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2">
-        <v>8646484</v>
+        <v>9601734</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2">
-        <v>9601734</v>
+        <v>71062315</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2">
-        <v>71062315</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
+      <c r="E6" s="2">
+        <v>29291128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2">
-        <v>29291128</v>
+        <v>25934529</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2">
-        <v>25934529</v>
+        <v>24224554</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2">
-        <v>24224554</v>
+        <v>5742274</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>96</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5742274</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +984,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1074,91 +992,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1676000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2">
-        <v>1676000</v>
+        <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市龍井區新東段05840000地號</t>
+  </si>
+  <si>
     <t>臺中市龍井區龍目井段水里社小段00080002地號</t>
   </si>
   <si>
@@ -75,16 +78,25 @@
     <t>臺中市龍井區龍目并段水里社小段00080014地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>100分之10</t>
   </si>
   <si>
+    <t>顔清標</t>
+  </si>
+  <si>
     <t>顏清標</t>
   </si>
   <si>
-    <t>顔清標</t>
+    <t>83年12月07日</t>
   </si>
   <si>
     <t>83年11月16日</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
   </si>
   <si>
     <t>買賣</t>
@@ -545,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,160 +615,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1527</v>
+        <v>91.84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>979</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>152.7</v>
+        <v>91.84</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1693</v>
+        <v>1527</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M3" s="2">
         <v>979</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.1</v>
       </c>
       <c r="Q3" s="2">
-        <v>169.3</v>
+        <v>152.7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>191</v>
+        <v>1693</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M4" s="2">
         <v>979</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.1</v>
       </c>
       <c r="Q4" s="2">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>191</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>979</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>19.1</v>
       </c>
     </row>
@@ -767,7 +832,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -775,206 +840,229 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1">
         <v>5707475</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5707475</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8646484</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2">
-        <v>9601734</v>
+        <v>8646484</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
-        <v>71062315</v>
+        <v>9601734</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E5" s="2">
+        <v>71062315</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2">
-        <v>29291128</v>
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2">
-        <v>25934529</v>
+        <v>29291128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
-        <v>24224554</v>
+        <v>25934529</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24224554</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>96</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2">
         <v>5742274</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1072,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -992,68 +1080,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1">
         <v>1676000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1676000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>103</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="債務" sheetId="2" r:id="rId2"/>
-    <sheet name="事業投資" sheetId="3" r:id="rId3"/>
+    <sheet name="建物" sheetId="2" r:id="rId2"/>
+    <sheet name="債務" sheetId="3" r:id="rId3"/>
+    <sheet name="事業投資" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -115,6 +116,12 @@
   </si>
   <si>
     <t>tmp1b4d1</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區屏西路</t>
+  </si>
+  <si>
+    <t>83年10月14H</t>
   </si>
   <si>
     <t>催收款</t>
@@ -832,6 +839,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>432</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>979</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -840,22 +963,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1">
         <v>5707475</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -863,22 +986,22 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <v>5707475</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -886,22 +1009,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2">
         <v>8646484</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -909,22 +1032,22 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>9601734</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -932,22 +1055,22 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2">
         <v>71062315</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -955,22 +1078,22 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -978,22 +1101,22 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
         <v>29291128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1001,22 +1124,22 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>25934529</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1024,22 +1147,22 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2">
         <v>24224554</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1047,22 +1170,22 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
         <v>5742274</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1083,19 +1206,19 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1">
         <v>1676000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1106,19 +1229,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
         <v>1676000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1129,19 +1252,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2">
         <v>3000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1152,19 +1275,19 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2">
         <v>12000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>83年10月14H</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>催收款</t>
@@ -921,7 +924,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -963,22 +966,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1">
         <v>5707475</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -986,22 +989,22 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2">
         <v>5707475</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1009,22 +1012,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>8646484</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1032,22 +1035,22 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2">
         <v>9601734</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1055,22 +1058,22 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2">
         <v>71062315</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1078,22 +1081,22 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1101,22 +1104,22 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
         <v>29291128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1124,22 +1127,22 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>25934529</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1147,22 +1150,22 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>24224554</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1170,22 +1173,22 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2">
         <v>5742274</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1206,19 +1209,19 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1">
         <v>1676000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1229,19 +1232,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>1676000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1252,19 +1255,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
         <v>3000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1275,19 +1278,19 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
         <v>12000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
+++ b/legislator/property/output/normal/顏清標_2012-04-10_財產申報表_tmp1b4d1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -127,48 +127,51 @@
     <t>building</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>催收款</t>
   </si>
   <si>
+    <t>長期擔保放款</t>
+  </si>
+  <si>
+    <t>擔保放款</t>
+  </si>
+  <si>
+    <t>黃美貴</t>
+  </si>
+  <si>
     <t>國泰世華銀行臺北市信義區松疒路</t>
   </si>
   <si>
+    <t>華南銀行清水分行臺中市清水區中山路</t>
+  </si>
+  <si>
+    <t>元營建設股份有限公司臺中市沙鹿區北勢東路</t>
+  </si>
+  <si>
+    <t>國泰世華銀行臺北市信義區松仁路</t>
+  </si>
+  <si>
     <t>85年05月30日</t>
   </si>
   <si>
+    <t>84年07月08日</t>
+  </si>
+  <si>
+    <t>97年10月23日</t>
+  </si>
+  <si>
+    <t>85年11月16H</t>
+  </si>
+  <si>
     <t>短期放款</t>
   </si>
   <si>
-    <t>長期擔保放款</t>
-  </si>
-  <si>
-    <t>擔保放款</t>
-  </si>
-  <si>
-    <t>黃美貴</t>
-  </si>
-  <si>
-    <t>華南銀行清水分行臺中市清水區中山路</t>
-  </si>
-  <si>
-    <t>元營建設股份有限公司臺中市沙鹿區北勢東路</t>
-  </si>
-  <si>
-    <t>國泰世華銀行臺北市信義區松仁路</t>
-  </si>
-  <si>
-    <t>8961620</t>
-  </si>
-  <si>
-    <t>84年07月08日</t>
-  </si>
-  <si>
-    <t>97年10月23日</t>
-  </si>
-  <si>
-    <t>85年11月16H</t>
-  </si>
-  <si>
     <t>繼承債務</t>
   </si>
   <si>
@@ -181,34 +184,46 @@
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>天台砂石股份有限公司</t>
   </si>
   <si>
+    <t>天馬瀝青股份有限公司</t>
+  </si>
+  <si>
+    <t>僑鴻建設股份有限公司</t>
+  </si>
+  <si>
     <t>臺中市竹林里中山路紅竹巷58號1樓</t>
   </si>
   <si>
+    <t>臺中市港埠路1段229號</t>
+  </si>
+  <si>
+    <t>臺中市埔子里正義路1號</t>
+  </si>
+  <si>
     <t>87年07月15R</t>
   </si>
   <si>
+    <t>83年03月16日</t>
+  </si>
+  <si>
+    <t>85年07月13曰</t>
+  </si>
+  <si>
     <t>合資公司</t>
   </si>
   <si>
-    <t>天馬瀝青股份有限公司</t>
-  </si>
-  <si>
-    <t>僑鴻建設股份有限公司</t>
-  </si>
-  <si>
-    <t>臺中市港埠路1段229號</t>
-  </si>
-  <si>
-    <t>臺中市埔子里正義路1號</t>
-  </si>
-  <si>
-    <t>83年03月16日</t>
-  </si>
-  <si>
-    <t>85年07月13曰</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -958,61 +973,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5707475</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2">
         <v>5707475</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>979</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1027,15 +1084,36 @@
         <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>979</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1050,15 +1128,36 @@
         <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2">
+        <v>979</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1073,38 +1172,80 @@
         <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2">
+        <v>979</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
+      <c r="E6" s="2">
+        <v>8961620</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2">
+        <v>979</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1116,18 +1257,39 @@
         <v>29291128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2">
+        <v>979</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -1139,18 +1301,39 @@
         <v>25934529</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2">
+        <v>979</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -1162,18 +1345,39 @@
         <v>24224554</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2">
+        <v>979</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -1188,7 +1392,28 @@
         <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2">
+        <v>979</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1198,33 +1423,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1676000</v>
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -1232,22 +1478,43 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>1676000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>979</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -1255,22 +1522,43 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>3000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>979</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -1278,19 +1566,40 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2">
         <v>12000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2">
+        <v>979</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
